--- a/Quoridor.xlsx
+++ b/Quoridor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\lifeIsTough\Quoridor\Quoridor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>方块大小：50px 50px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间距：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -401,7 +418,7 @@
     <col min="17" max="17" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="C1" s="2"/>
       <c r="E1" s="2"/>
@@ -411,11 +428,14 @@
       <c r="M1" s="2"/>
       <c r="O1" s="2"/>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="C3" s="2"/>
       <c r="E3" s="2"/>
@@ -425,11 +445,17 @@
       <c r="M3" s="2"/>
       <c r="O3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="C5" s="2"/>
       <c r="E5" s="2"/>
@@ -440,10 +466,10 @@
       <c r="O5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="C7" s="2"/>
       <c r="E7" s="2"/>
@@ -454,10 +480,10 @@
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="C9" s="2"/>
       <c r="E9" s="2"/>
@@ -468,10 +494,10 @@
       <c r="O9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
@@ -482,10 +508,10 @@
       <c r="O11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
@@ -496,10 +522,10 @@
       <c r="O13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
@@ -510,7 +536,7 @@
       <c r="O15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
